--- a/CustomerInfo.xlsx
+++ b/CustomerInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Registration No</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>Chennai</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>CSM</t>
+  </si>
+  <si>
+    <t>CSD</t>
+  </si>
+  <si>
+    <t>CSPO</t>
   </si>
 </sst>
 </file>
@@ -163,11 +175,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -463,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:F8"/>
+  <dimension ref="A3:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -479,7 +493,7 @@
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -498,8 +512,11 @@
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -518,8 +535,11 @@
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G4" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -538,8 +558,11 @@
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G5" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -558,8 +581,11 @@
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -578,8 +604,11 @@
       <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="G7" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -597,6 +626,9 @@
       </c>
       <c r="F8" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
